--- a/src/main/resources/InputTestData/DbQueryConfig/DBQueries.xlsx
+++ b/src/main/resources/InputTestData/DbQueryConfig/DBQueries.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="API" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="REQ" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -28,41 +28,21 @@
     <t>GetProduct</t>
   </si>
   <si>
-    <t>SELECT * FROM products where name ='Smartphones'</t>
+    <t>SELECT * FROM products where name ='Smartphone'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "product_id" : (p_id),
+  "name" : "Smartphone",
+  "description" : "Latest 5G smartphone with great features",
+  "price" : 699.9,
+  "stock_quantity" : 50,
+  "category_id" : 1}
+</t>
   </si>
   <si>
     <t>{
-  "product_id" : "(id ) ",
-  "name" : " (name)",
-  "obj.description" : "(desc)",
-  "price" : "(value at ) ",
-  "obj.created_at" : "( date)",
-  "obj.result": "(result)",
-  "arr[0].val": "(value)",
-  "arr[0].int": "(integer)",
-  "arr[0].bool": "(boolean)"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "product_id": 10,
-  "name": "Smartphone",
-  "price": 6994242525.2332,
-  "stock_quantity": 50,
-  "category_id": 1,
-  "created_at": 1734273497000,
-  "obj": {
-    "description": "Latest 5G smartphone with great features",
-    "created_at": 1734273497000,
-    "result": true
-  },
-  "arr": [
-    {
-      "val": "hello",
-      "bool": true,
-      "int": 98799877888.992
-    }
-  ]
+  "product_id": "p_id"
 }</t>
   </si>
 </sst>
@@ -327,6 +307,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="42.38"/>
+    <col customWidth="1" min="3" max="3" width="22.0"/>
+    <col customWidth="1" min="4" max="4" width="45.75"/>
   </cols>
   <sheetData>
     <row r="1">
